--- a/Análisis de clusters.xlsx
+++ b/Análisis de clusters.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0EEA2B-0ECE-44B1-91AA-4266030DE7FA}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBA3ED9-71BE-4BF6-B15C-6974CC30908C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="delitos" sheetId="1" r:id="rId1"/>
+    <sheet name="socioeconómico" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>cluster</t>
   </si>
@@ -76,15 +76,27 @@
     <t>Baja criminalidad pero con alto volumen de robos y hutos</t>
   </si>
   <si>
+    <t>Criminalidad baja-moderada, foco en hurtos</t>
+  </si>
+  <si>
     <t>Baja criminalidad general</t>
   </si>
   <si>
+    <t>Zona tranquila</t>
+  </si>
+  <si>
     <t>Criminalidad media predominando delitos violentos y asociados a tráfico de drogas</t>
   </si>
   <si>
+    <t>Criminalidad elevada, foco en drogas y violencia</t>
+  </si>
+  <si>
     <t>Alta criminalidad destacando agresiones sexuales y robos en general</t>
   </si>
   <si>
+    <t>Criminalidad mixta, robos y delitos sexuales elevados</t>
+  </si>
+  <si>
     <t>Inmigracion</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>Alto</t>
   </si>
   <si>
+    <t>Zona tradicional sin mucha presión</t>
+  </si>
+  <si>
     <t>Inm_De América del Norte</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>Población alta</t>
   </si>
   <si>
+    <t>Núcleo económico y migratorio fuerte</t>
+  </si>
+  <si>
     <t>Inm_De Asia</t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>Medio/alto</t>
   </si>
   <si>
+    <t>Áreas en desarrollo con diversidad</t>
+  </si>
+  <si>
     <t>Inm_De Centro América y Caribe</t>
   </si>
   <si>
@@ -169,6 +190,9 @@
     <t>Medio</t>
   </si>
   <si>
+    <t>Zona rural, baja desigualdad y poca actividad</t>
+  </si>
+  <si>
     <t>Inm_De Oceanía</t>
   </si>
   <si>
@@ -176,6 +200,9 @@
   </si>
   <si>
     <t>Media con edad media baja</t>
+  </si>
+  <si>
+    <t>Entorno desequilibrado con potencial juvenil</t>
   </si>
   <si>
     <t>Inm_De Sudamérica</t>
@@ -303,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,6 +351,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7BB71E-9536-A051-3C38-A19692FB52A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="6162675"/>
+          <a:ext cx="4572000" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,9 +736,10 @@
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -749,8 +827,11 @@
       <c r="O2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -795,10 +876,13 @@
         <v>68.882786253395238</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -843,10 +927,13 @@
         <v>124.50300984158527</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -891,10 +978,13 @@
         <v>142.83879590884249</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -935,7 +1025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -980,7 +1070,7 @@
         <v>8.3779442256511381</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1025,7 +1115,7 @@
         <v>5.4532686921073212</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1070,7 +1160,7 @@
         <v>43.395651884945849</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1115,7 +1205,7 @@
         <v>26.550813801970879</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1201,7 +1291,7 @@
         <v>8.3779442256511381</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1811,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3B2A0D-7EE4-4EEF-9ADD-AE421E464D49}">
-  <dimension ref="A3:X44"/>
+  <dimension ref="A3:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1835,7 +1925,7 @@
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1873,27 +1963,27 @@
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>15063.173044925101</v>
@@ -1911,7 +2001,7 @@
         <v>13207.163987138199</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1">
         <v>30.373775823713899</v>
@@ -1932,27 +2022,30 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>560.78535773710405</v>
@@ -1970,7 +2063,7 @@
         <v>989.80385852090001</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1">
         <v>2.5854572270652501</v>
@@ -1991,27 +2084,30 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
         <v>32</v>
       </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>3225.231281198</v>
@@ -2029,7 +2125,7 @@
         <v>3206.0450160771702</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1">
         <v>1.8851913477537401</v>
@@ -2050,27 +2146,30 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>46</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>3882.8818635607299</v>
@@ -2088,7 +2187,7 @@
         <v>2678.9935691318301</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1">
         <v>1951.0915141430901</v>
@@ -2109,27 +2208,30 @@
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>38.183028286189597</v>
@@ -2147,7 +2249,7 @@
         <v>49.6495176848874</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1">
         <v>752.23294509151401</v>
@@ -2168,27 +2270,30 @@
         <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>33</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>8987.7570715474194</v>
@@ -2206,7 +2311,7 @@
         <v>8248.5594855305408</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L9" s="1">
         <v>41102.7287853577</v>
@@ -2224,9 +2329,9 @@
         <v>47392.048231511202</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
         <v>3673.1081530781998</v>
@@ -2244,7 +2349,7 @@
         <v>4486.4147909967796</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1">
         <v>754.90848585690503</v>
@@ -2262,9 +2367,9 @@
         <v>1116.5016077170401</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
         <v>20229.5041597337</v>
@@ -2282,7 +2387,7 @@
         <v>26612.704180064298</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L11" s="1">
         <v>43056.361064891797</v>
@@ -2300,9 +2405,9 @@
         <v>48015.093247588396</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>44.462712146422597</v>
@@ -2320,7 +2425,7 @@
         <v>41.214469453376203</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>58.428702163061502</v>
@@ -2338,9 +2443,9 @@
         <v>57.308231511254</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>43.287603993344398</v>
@@ -2358,7 +2463,7 @@
         <v>40.203311897106097</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1">
         <v>11.4223960066555</v>
@@ -2376,9 +2481,9 @@
         <v>23.66077170418</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1">
         <v>45.622462562396002</v>
@@ -2396,7 +2501,7 @@
         <v>42.212797427652703</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L14" s="1">
         <v>51.762329450915097</v>
@@ -2414,9 +2519,9 @@
         <v>43.738295819935601</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>258758.164725457</v>
@@ -2434,7 +2539,7 @@
         <v>368995.81028938899</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L15" s="1">
         <v>0.46890114326631199</v>
@@ -2452,9 +2557,9 @@
         <v>0.591040759299028</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
         <v>263734.62229617301</v>
@@ -2472,7 +2577,7 @@
         <v>377001.54983922798</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L16" s="1">
         <v>0.57498324907340204</v>
@@ -2492,7 +2597,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>522493.00665557402</v>
@@ -2510,7 +2615,7 @@
         <v>745997.56591639796</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1">
         <v>0.566720715047208</v>
@@ -2530,7 +2635,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="K18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1">
         <v>0.56581932524838396</v>
@@ -2550,7 +2655,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="K19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L19" s="1">
         <v>0.50219435709034999</v>
@@ -2570,7 +2675,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="K20" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L20" s="1">
         <v>0.442593976889749</v>
@@ -2590,7 +2695,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="K21" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1">
         <v>0.63838181470942001</v>
@@ -2610,7 +2715,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="K22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="L22" s="1">
         <v>0.490363900092534</v>
@@ -2630,7 +2735,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="K23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L23" s="1">
         <v>0.49506393506781698</v>
@@ -2650,7 +2755,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="K24" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L24" s="1">
         <v>0.479118609197423</v>
@@ -2670,7 +2775,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="K25" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L25" s="1">
         <v>0.455527567281519</v>
@@ -2690,7 +2795,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="K26" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L26" s="1">
         <v>0.41624882901083199</v>
@@ -2710,7 +2815,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="K27" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L27" s="3">
         <v>0.50504750457013603</v>
@@ -3722,5 +3827,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>